--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Google Colab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mlp-fromscratch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CC566A-561C-403A-8503-DC79977514FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC0018C-DBB0-4B21-99B3-76DC5D4697DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>Bus9_Qload</t>
   </si>
   <si>
-    <t>Bus1_Pload</t>
-  </si>
-  <si>
     <t>Bus1_Qgen</t>
   </si>
   <si>
@@ -387,6 +384,9 @@
   </si>
   <si>
     <t>Data 100</t>
+  </si>
+  <si>
+    <t>Bus1_Pgen</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
   <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -694,27 +694,27 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2">
         <v>0</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2">
         <v>0</v>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2">
         <v>0</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2">
         <v>0</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2">
         <v>0</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2">
         <v>0</v>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2">
         <v>0</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2">
         <v>0</v>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2">
         <v>0</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2">
         <v>0</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2">
         <v>0</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2">
         <v>0</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2">
         <v>0</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2">
         <v>0</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2">
         <v>0</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2">
         <v>0</v>
@@ -6260,7 +6260,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2">
         <v>0</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2">
         <v>0</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2">
         <v>0</v>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2">
         <v>0</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2">
         <v>0</v>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2">
         <v>0</v>
